--- a/pred_ohlcv/54_21/2019-11-02 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 RNT ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-966072.6826555554</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-983890.9090555555</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-983879.9090555555</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1168816.38326521</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1201598.93226521</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1205397.20506521</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1205386.20506521</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1205386.20506521</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1018621.28396521</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1088416.22686521</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1153897.98206521</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1264416.58606521</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1251089.49276521</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1052027.00956521</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-749180.0906652103</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-3542569.311361948</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-3364908.402861948</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-3695826.902861947</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-3489188.857065349</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-3591011.73566535</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>750442.6936035936</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>735518.0553035936</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>408324.0877035937</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>408324.0877035937</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>464789.8827035936</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>636317.1001035937</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>454679.9886035937</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>414072.9186035937</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>468903.9280035936</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>468903.9280035936</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>393064.3290276441</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>392875.7540276441</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3252028.410827644</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2616470.631527644</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3004377.149027644</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2977736.258227644</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3068530.398427644</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2679106.10362725</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2738506.29882725</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2506780.396227249</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2756586.123244409</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>2770001.32322725</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>2606743.733415485</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2933283.73410372</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2665536.93200372</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2551596.30980372</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2551608.42090372</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2706654.52880372</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2687903.69990372</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2859466.85490372</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2729344.90230372</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2382484.31590372</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2387484.31590372</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2205650.47840372</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>2205650.47840372</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>2257149.81070372</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2257149.81070372</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2265963.27610372</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2169809.43010372</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>2226550.66410372</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2226550.66410372</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2323073.44370372</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2634599.7372891</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2589583.7667891</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2587409.8867891</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2587409.8867891</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2615115.5080891</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2565115.5080891</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2223113.7436891</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 RNT ohlcv.xlsx
@@ -5956,7 +5956,7 @@
         <v>-3364908.402861948</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3596252.861361947</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3695826.902861947</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3544395.293761948</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-3489188.857065349</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-3492404.82706535</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-3596305.69816535</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-3591011.73566535</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3655149.23566535</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>750442.6936035936</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>735518.0553035936</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>408324.0877035937</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>408324.0877035937</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>504187.3766035936</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>464789.8827035936</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>636317.1001035937</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>441782.7061035937</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>454679.9886035937</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>414072.9186035937</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>468903.9280035936</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>468903.9280035936</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>393064.3290276441</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>392875.7540276441</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3252028.410827644</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2616470.631527644</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3004377.149027644</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2977736.258227644</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3068530.398427644</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2862311.29282725</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2679106.10362725</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2738506.29882725</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2506780.396227249</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2756586.123244409</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>2770001.32322725</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>2606743.733415485</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2933283.73410372</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2763348.21050372</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2665536.93200372</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2551596.30980372</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2551608.42090372</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2706654.52880372</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2687903.69990372</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2859466.85490372</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2729344.90230372</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2535961.86550372</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>2427602.43300372</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2342921.80320372</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2382484.31590372</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2205650.47840372</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2265963.27610372</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2587409.8867891</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
